--- a/Project_Interview/AI면접 어플리케이션 일정별_진척률.xlsx
+++ b/Project_Interview/AI면접 어플리케이션 일정별_진척률.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\학교 폴더\3학년 1학기\앱프로그래밍 응용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7A5954-A90D-43D1-BF3C-9F7E75F6A0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48103181-4EE5-4539-B521-55E8E5487949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>작업 항목</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>테스트 및 디버깅</t>
-  </si>
-  <si>
-    <t>배포 준비</t>
   </si>
   <si>
     <t>진척률 (%)</t>
@@ -425,7 +422,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -462,11 +459,11 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C7" si="0">IF(B3=100, "완료", IF(B3&gt;0, "진행 중", "미시작"))</f>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,11 +471,11 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>미시작</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,11 +483,11 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>미시작</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -498,23 +495,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>미시작</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
       <c r="B7">
         <v>0</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>미시작</v>
       </c>
     </row>
   </sheetData>
